--- a/data/financial_statements/sofp/SWK.xlsx
+++ b/data/financial_statements/sofp/SWK.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,144 +610,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>415000000</v>
+        <v>408700000</v>
       </c>
       <c r="C2">
-        <v>288000000</v>
+        <v>282300000</v>
       </c>
       <c r="D2">
-        <v>170000000</v>
+        <v>165800000</v>
       </c>
       <c r="E2">
-        <v>150000000</v>
+        <v>142100000</v>
       </c>
       <c r="F2">
-        <v>303000000</v>
+        <v>292700000</v>
       </c>
       <c r="G2">
         <v>440400000</v>
@@ -742,20 +853,20 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>1503000000</v>
+        <v>1503200000</v>
       </c>
       <c r="C3">
-        <v>1592000000</v>
+        <v>1592100000</v>
       </c>
       <c r="D3">
         <v>1842000000</v>
       </c>
       <c r="E3">
-        <v>1561000000</v>
+        <v>1481700000</v>
       </c>
       <c r="F3">
         <v>1989000000</v>
@@ -864,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>6347000000</v>
+        <v>6347200000</v>
       </c>
       <c r="C4">
-        <v>6636000000</v>
+        <v>6635500000</v>
       </c>
       <c r="D4">
-        <v>6268000000</v>
+        <v>6267700000</v>
       </c>
       <c r="E4">
-        <v>5447000000</v>
+        <v>5419900000</v>
       </c>
       <c r="F4">
-        <v>4134000000</v>
+        <v>4134400000</v>
       </c>
       <c r="G4">
         <v>3679500000</v>
@@ -986,23 +1097,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>540000000</v>
+        <v>108700000</v>
       </c>
       <c r="C5">
-        <v>1457000000</v>
+        <v>956100000</v>
       </c>
       <c r="D5">
-        <v>1457000000</v>
+        <v>965400000</v>
       </c>
       <c r="E5">
-        <v>1369000000</v>
+        <v>975700000</v>
       </c>
       <c r="F5">
-        <v>450000000</v>
+        <v>41000000</v>
       </c>
       <c r="G5">
         <v>32700000</v>
@@ -1108,23 +1219,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>8805000000</v>
+        <v>8804600000</v>
       </c>
       <c r="C6">
-        <v>9973000000</v>
+        <v>9972800000</v>
       </c>
       <c r="D6">
-        <v>9736000000</v>
+        <v>9736200000</v>
       </c>
       <c r="E6">
-        <v>8526000000</v>
+        <v>8526400000</v>
       </c>
       <c r="F6">
-        <v>6876000000</v>
+        <v>6876400000</v>
       </c>
       <c r="G6">
         <v>6555700000</v>
@@ -1230,23 +1341,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>2708000000</v>
+        <v>2305600000</v>
       </c>
       <c r="C7">
-        <v>2709000000</v>
+        <v>2310600000</v>
       </c>
       <c r="D7">
-        <v>2786000000</v>
+        <v>2365600000</v>
       </c>
       <c r="E7">
-        <v>2780000000</v>
+        <v>2336800000</v>
       </c>
       <c r="F7">
-        <v>2513000000</v>
+        <v>2051300000</v>
       </c>
       <c r="G7">
         <v>2038400000</v>
@@ -1352,8 +1463,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1000000</v>
@@ -1387,20 +1498,20 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>12861000000</v>
+        <v>12860900000</v>
       </c>
       <c r="C9">
-        <v>13032000000</v>
+        <v>13031800000</v>
       </c>
       <c r="D9">
-        <v>13237000000</v>
+        <v>13237300000</v>
       </c>
       <c r="E9">
-        <v>13484000000</v>
+        <v>13285700000</v>
       </c>
       <c r="F9">
         <v>13837000000</v>
@@ -1509,23 +1620,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>1149000000</v>
+        <v>1552800000</v>
       </c>
       <c r="C10">
-        <v>3648000000</v>
+        <v>4046200000</v>
       </c>
       <c r="D10">
-        <v>3600000000</v>
+        <v>4019600000</v>
       </c>
       <c r="E10">
-        <v>3369000000</v>
+        <v>4031100000</v>
       </c>
       <c r="F10">
-        <v>945000000</v>
+        <v>1561900000</v>
       </c>
       <c r="G10">
         <v>1434100000</v>
@@ -1631,8 +1742,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>16719300000</v>
@@ -1753,23 +1864,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>25524000000</v>
+        <v>25523900000</v>
       </c>
       <c r="C12">
-        <v>29361000000</v>
+        <v>29361400000</v>
       </c>
       <c r="D12">
-        <v>29359000000</v>
+        <v>29358700000</v>
       </c>
       <c r="E12">
         <v>28180000000</v>
       </c>
       <c r="F12">
-        <v>24327000000</v>
+        <v>24326600000</v>
       </c>
       <c r="G12">
         <v>23962900000</v>
@@ -1875,8 +1986,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>2569200000</v>
@@ -1997,23 +2108,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>2493000000</v>
+        <v>2492800000</v>
       </c>
       <c r="C14">
-        <v>3139000000</v>
+        <v>3138800000</v>
       </c>
       <c r="D14">
-        <v>3368000000</v>
+        <v>3367700000</v>
       </c>
       <c r="E14">
-        <v>3439000000</v>
+        <v>3423600000</v>
       </c>
       <c r="F14">
-        <v>3056000000</v>
+        <v>3055700000</v>
       </c>
       <c r="G14">
         <v>2998700000</v>
@@ -2119,8 +2230,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2543800000</v>
@@ -2241,20 +2352,20 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>2570000000</v>
+        <v>1200000</v>
       </c>
       <c r="C16">
-        <v>5834000000</v>
+        <v>1200000</v>
       </c>
       <c r="D16">
-        <v>5088000000</v>
+        <v>1200000</v>
       </c>
       <c r="E16">
-        <v>2361000000</v>
+        <v>1300000</v>
       </c>
       <c r="F16">
         <v>189000000</v>
@@ -2363,20 +2474,20 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2544000000</v>
       </c>
       <c r="C17">
-        <v>2788000000</v>
+        <v>483500000</v>
       </c>
       <c r="D17">
-        <v>2500000000</v>
+        <v>463500000</v>
       </c>
       <c r="E17">
-        <v>2647000000</v>
+        <v>460400000</v>
       </c>
       <c r="F17">
         <v>2336000000</v>
@@ -2434,23 +2545,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>7607000000</v>
       </c>
       <c r="C18">
-        <v>11761000000</v>
+        <v>11760700000</v>
       </c>
       <c r="D18">
         <v>10955000000</v>
       </c>
       <c r="E18">
-        <v>8767000000</v>
+        <v>8767400000</v>
       </c>
       <c r="F18">
-        <v>5581000000</v>
+        <v>5580800000</v>
       </c>
       <c r="G18">
         <v>5402500000</v>
@@ -2556,23 +2667,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>5351000000</v>
+        <v>5350500000</v>
       </c>
       <c r="C19">
-        <v>5352000000</v>
+        <v>5351800000</v>
       </c>
       <c r="D19">
-        <v>5356000000</v>
+        <v>5355500000</v>
       </c>
       <c r="E19">
-        <v>4681000000</v>
+        <v>4353600000</v>
       </c>
       <c r="F19">
-        <v>4682000000</v>
+        <v>4246900000</v>
       </c>
       <c r="G19">
         <v>4246200000</v>
@@ -2678,8 +2789,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>403500000</v>
@@ -2800,23 +2911,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>674000000</v>
+        <v>674300000</v>
       </c>
       <c r="C21">
-        <v>626000000</v>
+        <v>625900000</v>
       </c>
       <c r="D21">
-        <v>663000000</v>
+        <v>662800000</v>
       </c>
       <c r="E21">
-        <v>711000000</v>
+        <v>711200000</v>
       </c>
       <c r="F21">
-        <v>561000000</v>
+        <v>560700000</v>
       </c>
       <c r="G21">
         <v>550600000</v>
@@ -2922,23 +3033,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>2343000000</v>
+        <v>1939900000</v>
       </c>
       <c r="C22">
-        <v>2541000000</v>
+        <v>2108600000</v>
       </c>
       <c r="D22">
-        <v>3030000000</v>
+        <v>2575700000</v>
       </c>
       <c r="E22">
-        <v>2428000000</v>
+        <v>2281300000</v>
       </c>
       <c r="F22">
-        <v>2185000000</v>
+        <v>2046700000</v>
       </c>
       <c r="G22">
         <v>2077100000</v>
@@ -3044,8 +3155,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>8368200000</v>
@@ -3166,23 +3277,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>15975000000</v>
+        <v>15975200000</v>
       </c>
       <c r="C24">
-        <v>20280000000</v>
+        <v>20279500000</v>
       </c>
       <c r="D24">
-        <v>20004000000</v>
+        <v>20003900000</v>
       </c>
       <c r="E24">
-        <v>16588000000</v>
+        <v>16587600000</v>
       </c>
       <c r="F24">
-        <v>13008000000</v>
+        <v>13008400000</v>
       </c>
       <c r="G24">
         <v>12876900000</v>
@@ -3288,8 +3399,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>5023400000</v>
@@ -3410,8 +3521,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>620300000</v>
@@ -3481,23 +3592,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>442000000</v>
+        <v>442300000</v>
       </c>
       <c r="C27">
-        <v>442000000</v>
+        <v>442300000</v>
       </c>
       <c r="D27">
-        <v>442000000</v>
+        <v>442300000</v>
       </c>
       <c r="E27">
-        <v>442000000</v>
+        <v>442300000</v>
       </c>
       <c r="F27">
-        <v>442000000</v>
+        <v>442300000</v>
       </c>
       <c r="G27">
         <v>442300000</v>
@@ -3603,23 +3714,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>9504000000</v>
+        <v>9504100000</v>
       </c>
       <c r="C28">
         <v>8775000000</v>
       </c>
       <c r="D28">
-        <v>8801000000</v>
+        <v>8801400000</v>
       </c>
       <c r="E28">
-        <v>8742000000</v>
+        <v>8742400000</v>
       </c>
       <c r="F28">
-        <v>8541000000</v>
+        <v>8541400000</v>
       </c>
       <c r="G28">
         <v>8258600000</v>
@@ -3725,8 +3836,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>3617200000</v>
@@ -3847,8 +3958,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3945,23 +4056,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>8926000000</v>
+        <v>8928398000</v>
       </c>
       <c r="C31">
-        <v>8460000000</v>
+        <v>8461600000</v>
       </c>
       <c r="D31">
-        <v>8733000000</v>
+        <v>8734501000</v>
       </c>
       <c r="E31">
-        <v>10970000000</v>
+        <v>10972100000</v>
       </c>
       <c r="F31">
-        <v>10696000000</v>
+        <v>10697900000</v>
       </c>
       <c r="G31">
         <v>10336000000</v>
@@ -4067,23 +4178,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>9547000000</v>
+        <v>9548700000</v>
       </c>
       <c r="C32">
-        <v>9080000000</v>
+        <v>9081900000</v>
       </c>
       <c r="D32">
-        <v>9353000000</v>
+        <v>9354800000</v>
       </c>
       <c r="E32">
-        <v>11591000000</v>
+        <v>11592400000</v>
       </c>
       <c r="F32">
-        <v>11316000000</v>
+        <v>11318200000</v>
       </c>
       <c r="G32">
         <v>11086000000</v>
@@ -4189,8 +4300,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>25523900000</v>
@@ -4311,8 +4422,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>147937000</v>
@@ -4433,8 +4544,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>750000</v>
@@ -4504,8 +4615,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>-3312199000</v>
@@ -4626,23 +4737,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>7506000000</v>
+        <v>4943000000</v>
       </c>
       <c r="C37">
-        <v>10898000000</v>
+        <v>5070700000</v>
       </c>
       <c r="D37">
-        <v>10274000000</v>
+        <v>5190900000</v>
       </c>
       <c r="E37">
-        <v>6892000000</v>
+        <v>4212800000</v>
       </c>
       <c r="F37">
-        <v>4568000000</v>
+        <v>4143200000</v>
       </c>
       <c r="G37">
         <v>3879800000</v>
@@ -4748,23 +4859,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>7921000000</v>
+        <v>5351700000</v>
       </c>
       <c r="C38">
-        <v>11186000000</v>
+        <v>5353000000</v>
       </c>
       <c r="D38">
-        <v>10444000000</v>
+        <v>5356700000</v>
       </c>
       <c r="E38">
-        <v>7042000000</v>
+        <v>4354900000</v>
       </c>
       <c r="F38">
-        <v>4871000000</v>
+        <v>4435900000</v>
       </c>
       <c r="G38">
         <v>4320200000</v>
